--- a/cam/RP2040-ProMini-20231121-JLCPCB-CPL-WSON.xlsx
+++ b/cam/RP2040-ProMini-20231121-JLCPCB-CPL-WSON.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AG\Documents\KiCad\7.0\projects\RP2040-ProMini\cam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3776CE97-9C47-42ED-ADE5-CF2C2FAB3CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940A7AFE-1539-43BC-9FE3-BF1E42343240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1764" yWindow="3036" windowWidth="12336" windowHeight="18756" xr2:uid="{1DC8C5A6-54F6-45D4-9EBD-5B030B60A142}"/>
+    <workbookView xWindow="12156" yWindow="2460" windowWidth="12336" windowHeight="18756" xr2:uid="{1DC8C5A6-54F6-45D4-9EBD-5B030B60A142}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -573,7 +573,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -921,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
